--- a/branches/jembi-contrib/StructureDefinition-hiv-patient.xlsx
+++ b/branches/jembi-contrib/StructureDefinition-hiv-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="400">
   <si>
     <t>Path</t>
   </si>
@@ -340,34 +340,31 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>comm-preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-preferenceType}
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/gender-identity}
 </t>
   </si>
   <si>
-    <t>The type of the patient's preferred language.</t>
-  </si>
-  <si>
-    <t>Indicates what mode of communication the patient prefers to use for the indicated language.</t>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>Gender identity</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
 </t>
   </si>
   <si>
-    <t>The patient's gender identity</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
+    <t>Key population</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1427,7 +1424,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.56640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2641,7 +2638,7 @@
         <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2724,11 +2721,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2750,16 +2747,16 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2808,7 +2805,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2863,17 +2860,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2910,10 +2907,10 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
@@ -2922,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2937,16 +2934,16 @@
         <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2954,10 +2951,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
@@ -2979,17 +2976,17 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3038,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3053,16 +3050,16 @@
         <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -3070,10 +3067,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
@@ -3095,17 +3092,17 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3154,7 +3151,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3169,16 +3166,16 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
@@ -3186,10 +3183,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>44</v>
@@ -3211,17 +3208,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3270,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3285,16 +3282,16 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3302,10 +3299,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
@@ -3327,17 +3324,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3386,7 +3383,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3401,16 +3398,16 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3444,10 +3441,10 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3498,7 +3495,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3513,7 +3510,7 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3530,11 +3527,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3556,13 +3553,13 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3603,7 +3600,7 @@
         <v>99</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
@@ -3612,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3627,7 +3624,7 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3670,16 +3667,16 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3704,31 +3701,31 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3743,7 +3740,7 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3783,19 +3780,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3820,31 +3817,31 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3859,7 +3856,7 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3868,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3876,7 +3873,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3902,16 +3899,16 @@
         <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3924,43 +3921,43 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3975,16 +3972,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4018,13 +4015,13 @@
         <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4038,43 +4035,43 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4089,16 +4086,16 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4106,7 +4103,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4129,13 +4126,13 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4186,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4201,16 +4198,16 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4241,16 +4238,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4300,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4315,16 +4312,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4355,26 +4352,26 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="Q26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4433,13 +4430,13 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4473,19 +4470,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4534,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4549,16 +4546,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4566,7 +4563,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4589,19 +4586,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4650,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4665,16 +4662,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4708,16 +4705,16 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4742,14 +4739,14 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4781,16 +4778,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4798,7 +4795,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4821,19 +4818,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4882,7 +4879,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4897,24 +4894,24 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4937,19 +4934,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4998,7 +4995,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5013,16 +5010,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5053,19 +5050,19 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5102,10 +5099,10 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AB32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
@@ -5114,7 +5111,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5129,16 +5126,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5169,17 +5166,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5204,14 +5201,14 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5243,16 +5240,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5260,7 +5257,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5283,19 +5280,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5344,7 +5341,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5359,16 +5356,16 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5376,7 +5373,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5399,19 +5396,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5460,7 +5457,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5475,16 +5472,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5515,19 +5512,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5576,7 +5573,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5588,13 +5585,13 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5634,10 +5631,10 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5688,7 +5685,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5703,7 +5700,7 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5720,11 +5717,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5746,13 +5743,13 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5802,7 +5799,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5817,7 +5814,7 @@
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5834,11 +5831,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5860,16 +5857,16 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5918,7 +5915,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5973,17 +5970,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6008,14 +6005,14 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6047,16 +6044,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6064,7 +6061,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6087,17 +6084,17 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6146,7 +6143,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6161,16 +6158,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6201,19 +6198,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6262,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6277,16 +6274,16 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6294,7 +6291,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6317,17 +6314,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6376,7 +6373,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6391,16 +6388,16 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6408,7 +6405,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6434,14 +6431,14 @@
         <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6466,14 +6463,14 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6505,16 +6502,16 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6522,7 +6519,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6545,17 +6542,17 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6604,7 +6601,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6613,22 +6610,22 @@
         <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6636,7 +6633,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6659,13 +6656,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6716,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6731,10 +6728,10 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6748,7 +6745,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6771,19 +6768,19 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6832,7 +6829,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6847,10 +6844,10 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6864,7 +6861,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6890,10 +6887,10 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6944,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6959,7 +6956,7 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -6976,11 +6973,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7002,13 +6999,13 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7058,7 +7055,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7073,7 +7070,7 @@
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7090,11 +7087,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7116,16 +7113,16 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7174,7 +7171,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7229,19 +7226,19 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7290,7 +7287,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>51</v>
@@ -7305,16 +7302,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7345,19 +7342,19 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7406,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7421,16 +7418,16 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7438,11 +7435,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7461,16 +7458,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7520,7 +7517,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7535,16 +7532,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7552,7 +7549,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7575,19 +7572,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7636,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7651,10 +7648,10 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7691,19 +7688,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7752,7 +7749,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7767,10 +7764,10 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7784,7 +7781,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7810,10 +7807,10 @@
         <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7864,7 +7861,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7879,7 +7876,7 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -7896,11 +7893,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7922,13 +7919,13 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7978,7 +7975,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7993,7 +7990,7 @@
         <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8010,11 +8007,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8036,16 +8033,16 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8094,7 +8091,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8126,7 +8123,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8149,16 +8146,16 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8208,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>51</v>
@@ -8223,16 +8220,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8240,7 +8237,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8266,10 +8263,10 @@
         <v>71</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8296,14 +8293,14 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>51</v>
@@ -8335,10 +8332,10 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
